--- a/High-Level-Dimensional-Modeling-Workbook.xlsx
+++ b/High-Level-Dimensional-Modeling-Workbook.xlsx
@@ -79,20 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>State the type of fact grain: Transaction, Periodic snapshot, or Accumulating snapshot</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="190">
   <si>
     <t>Description</t>
   </si>
@@ -376,11 +363,6 @@
 Table</t>
   </si>
   <si>
-    <t>Fact
-Grain
-Type</t>
-  </si>
-  <si>
     <t>Instructions!</t>
   </si>
   <si>
@@ -459,9 +441,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>Telephone No</t>
   </si>
   <si>
@@ -471,15 +450,9 @@
     <t>Capacity</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Airline</t>
   </si>
   <si>
-    <t>DimAirplaneType</t>
-  </si>
-  <si>
     <t>Identifier</t>
   </si>
   <si>
@@ -492,9 +465,6 @@
     <t>Icao</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Iatitude</t>
   </si>
   <si>
@@ -537,9 +507,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>User Name</t>
-  </si>
-  <si>
     <t>First Name của khách hàng</t>
   </si>
   <si>
@@ -552,9 +519,6 @@
     <t>Aldrin</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Archenweg 82</t>
   </si>
   <si>
@@ -582,27 +546,12 @@
     <t>VIETNAM</t>
   </si>
   <si>
-    <t>VI</t>
-  </si>
-  <si>
     <t>Vietnam Airlines</t>
   </si>
   <si>
-    <t>Boeing 777</t>
-  </si>
-  <si>
-    <t>Die Boeing 777, oft auch als Triple Seven</t>
-  </si>
-  <si>
     <t>A CORUNA</t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Ryo</t>
-  </si>
-  <si>
     <t>Rosenweg 78</t>
   </si>
   <si>
@@ -612,15 +561,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>Reggie.Barlow@cvcpaging.com</t>
-  </si>
-  <si>
-    <t>04055 81801638</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
     <t>Michael1</t>
   </si>
   <si>
@@ -630,12 +570,6 @@
     <t>FactBookingSales</t>
   </si>
   <si>
-    <t>Departure Time</t>
-  </si>
-  <si>
-    <t>Arrival Time</t>
-  </si>
-  <si>
     <t>Ngày sinh</t>
   </si>
   <si>
@@ -678,15 +612,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Mã sân bay theo Hiệp hội Vận tải Hàng không Quốc tế (International Air Transport Association)</t>
-  </si>
-  <si>
-    <t>Mã sân bay theo Tổ chức Hàng không Dân dụng Quốc tế (International Civil Aviation Organization)</t>
-  </si>
-  <si>
-    <t>Mã hàng không theo Hiệp hội Vận tải Hàng không Quốc tế (International Air Transport Association)</t>
-  </si>
-  <si>
     <t>Tên hãng hàng không</t>
   </si>
   <si>
@@ -702,15 +627,6 @@
     <t>Hãng hàng không sở hữu máy bay</t>
   </si>
   <si>
-    <t>Mô tả loại máy bay</t>
-  </si>
-  <si>
-    <t>First Name của nhân viên</t>
-  </si>
-  <si>
-    <t>Last Name của nhân viên</t>
-  </si>
-  <si>
     <t>Địa chỉ (đường)</t>
   </si>
   <si>
@@ -720,12 +636,6 @@
     <t>Địa chỉ (quốc tịch)</t>
   </si>
   <si>
-    <t>Vị trí nhân viên làm việc</t>
-  </si>
-  <si>
-    <t>Tên user của nhân viên</t>
-  </si>
-  <si>
     <t>Mật khẩu</t>
   </si>
   <si>
@@ -735,27 +645,6 @@
     <t>DimDate</t>
   </si>
   <si>
-    <t>Full Date</t>
-  </si>
-  <si>
-    <t>Day Of Week</t>
-  </si>
-  <si>
-    <t>Day Num In Month</t>
-  </si>
-  <si>
-    <t>Day Name</t>
-  </si>
-  <si>
-    <t>Week Num In Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Month Name</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -849,27 +738,15 @@
     <t>One row per booking</t>
   </si>
   <si>
-    <t>Seat, Price, Departure Date, Arrival Date</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>Fact Flight Schedule</t>
   </si>
   <si>
-    <t>Flight Time</t>
-  </si>
-  <si>
-    <t>Thời gian (phút) từ thời điểm bay đến thời điểm đến</t>
-  </si>
-  <si>
     <t>Hãng hàng không</t>
   </si>
   <si>
-    <t>Departure Date, Arrival Date, Flight Time</t>
-  </si>
-  <si>
     <t>FactEmployeeSalary</t>
   </si>
   <si>
@@ -885,15 +762,6 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>Lương tính theo USD theo tháng</t>
-  </si>
-  <si>
-    <t>SalaryVND</t>
-  </si>
-  <si>
-    <t>Lương tính theo VNĐ theo tháng</t>
-  </si>
-  <si>
     <t>Fact Employee Salary</t>
   </si>
   <si>
@@ -906,9 +774,6 @@
     <t>One row per employee</t>
   </si>
   <si>
-    <t>Salary, SalaryVND</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -921,16 +786,147 @@
     <t>Airplane</t>
   </si>
   <si>
-    <t>AirplaneType</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Passport No</t>
+    <t>Departure Date, Arrival Date</t>
+  </si>
+  <si>
+    <t>Seat, Price</t>
+  </si>
+  <si>
+    <t>Mã sân bay theo Hiệp hội Vận tải Hàng không Quốc tế 
+(International Air Transport Association)</t>
+  </si>
+  <si>
+    <t>Mã sân bay theo Tổ chức Hàng không Dân dụng Quốc tế 
+(International Civil Aviation Organization)</t>
+  </si>
+  <si>
+    <t>AirportName</t>
+  </si>
+  <si>
+    <t>AirportId</t>
+  </si>
+  <si>
+    <t>AirportKey</t>
+  </si>
+  <si>
+    <t>Natural Key</t>
+  </si>
+  <si>
+    <t>Surrogate Key</t>
+  </si>
+  <si>
+    <t>AirlineId</t>
+  </si>
+  <si>
+    <t>AirlineName</t>
+  </si>
+  <si>
+    <t>AirlineKey</t>
+  </si>
+  <si>
+    <t>AirplaneId</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>Airbus-A320-Familie</t>
+  </si>
+  <si>
+    <t>AirplaneKey</t>
+  </si>
+  <si>
+    <t>Tên nhận dạng kiểu máy bay</t>
+  </si>
+  <si>
+    <t>Mô tả kiểu máy bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Airbus-A320-Familie werden die vier Standardrumpfflugzeug-Baureihen des Flugzeugherstellers Airbus bezeichnet. Die A320 ist dabei als erste Variante das </t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrival </t>
+  </si>
+  <si>
+    <t>FlightKey</t>
+  </si>
+  <si>
+    <t>DateKey</t>
+  </si>
+  <si>
+    <t>PassengerId</t>
+  </si>
+  <si>
+    <t>Mã passpost</t>
+  </si>
+  <si>
+    <t>P103023</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>DayName</t>
+  </si>
+  <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
+    <t>DayOfMonth</t>
+  </si>
+  <si>
+    <t>WeekOfYear</t>
+  </si>
+  <si>
+    <t>MonthOfYear</t>
+  </si>
+  <si>
+    <t>PassengerKey</t>
+  </si>
+  <si>
+    <t>AddressKey</t>
+  </si>
+  <si>
+    <t>DepartmentKey</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>TelephoneNo</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>PassportNo</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>EmployeeKey</t>
+  </si>
+  <si>
+    <t>Lương theo tháng tính theo USD</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1058,12 +1054,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1096,23 +1160,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1121,14 +1170,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="19" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1891,167 +1985,181 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" style="1" customWidth="1"/>
-    <col min="7" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>119</v>
+      <c r="C2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>159</v>
+        <v>126</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -2059,46 +2167,66 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>178</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="N5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2119,8 +2247,18 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2141,8 +2279,18 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2163,8 +2311,18 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2185,8 +2343,18 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2207,8 +2375,18 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2229,8 +2407,18 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2251,8 +2439,18 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2273,8 +2471,18 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2295,8 +2503,18 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2317,8 +2535,18 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2339,8 +2567,18 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2361,8 +2599,18 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2383,8 +2631,18 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2405,8 +2663,18 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2427,8 +2695,18 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2449,8 +2727,18 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2471,8 +2759,18 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2493,10 +2791,20 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2506,1118 +2814,1520 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="54.5703125" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="17" t="s">
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="16">
-        <v>10970</v>
+      <c r="E6" s="24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="21" t="s">
-        <v>64</v>
+      <c r="E7" s="24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="17" t="s">
-        <v>61</v>
+      <c r="E8" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="17" t="s">
-        <v>62</v>
+      <c r="E9" s="24">
+        <v>12.666111000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="17">
-        <v>4441</v>
+      <c r="E10" s="24">
+        <v>108.11444400000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="24">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="24">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="29">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="29">
+        <v>0.8652777777777777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="27">
+        <v>20150101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="30">
+        <v>38357</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="27">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="25">
+        <v>10970</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="24">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+      <c r="B61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+      <c r="B62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="24">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
+      <c r="B63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="17" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
+      <c r="B64" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+      <c r="B67" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
+      <c r="B70" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="35"/>
+      <c r="B71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="25">
+        <v>10970</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+      <c r="B73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
+      <c r="B74" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="B75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+      <c r="B76" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="35"/>
+      <c r="B77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17">
-        <v>12.666111000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="17">
-        <v>108.11444400000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="17" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
+      <c r="B78" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="17">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="19">
-        <v>26686</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+      <c r="B81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="17">
-        <v>4162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="27">
+        <v>1200.1199999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+      <c r="B82" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="D82" s="3"/>
+      <c r="E82" s="25">
+        <v>38357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+      <c r="B83" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="23">
+      <c r="C83" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="25">
         <v>38357</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="25">
+        <v>38357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="36"/>
+      <c r="B86" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="15" t="s">
+      <c r="D86" s="3"/>
+      <c r="E86" s="25">
+        <v>38357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="37" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="15">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
+      <c r="B88" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="25">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="25">
-        <v>0.8652777777777777</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="17">
-        <v>4162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="15">
-        <v>1054.29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="17">
-        <v>23194380</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="17"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="27"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="15">
-        <v>1200.1199999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="16">
-        <v>38357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="16">
-        <v>38357</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="20"/>
+      <c r="C88" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24">
+        <v>1203.19</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="16">
-        <v>38357</v>
-      </c>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="16">
-        <v>38357</v>
-      </c>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="17">
-        <v>120</v>
-      </c>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="14"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A35:A44"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E51" r:id="rId1"/>
+    <hyperlink ref="E73" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3649,31 +4359,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
